--- a/Technology/Airbnb.xlsx
+++ b/Technology/Airbnb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBAF7BE-98D2-4A41-A461-86495B2E55AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F87418-3803-B442-94CE-DFB8F7F86101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,7 +946,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1011,15 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2395,10 +2406,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="S105" sqref="S105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2572,13 +2583,13 @@
       <c r="L4" s="15">
         <v>16651000000</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="59" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="21" t="s">
@@ -2630,15 +2641,15 @@
         <f t="shared" ref="L5" si="2">(L4/K4)-1</f>
         <v>0.1411047149122806</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="58">
         <f>(G5+F5+E5)/3</f>
         <v>0.29281256188782862</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="58">
         <f>(G21+F21+E21)/3</f>
         <v>6.5927165252214168</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="58">
         <f>(G30+F30+E30)/3</f>
         <v>-0.50056919516481246</v>
       </c>
@@ -2712,13 +2723,13 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="O7" s="59" t="s">
         <v>115</v>
       </c>
       <c r="P7" s="21" t="s">
@@ -2747,15 +2758,15 @@
       <c r="G8" s="2">
         <v>0.82150000000000001</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="58">
         <f>G8</f>
         <v>0.82150000000000001</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="58">
         <f>G22</f>
         <v>0.24929999999999999</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="58">
         <f>G31</f>
         <v>0.22539999999999999</v>
       </c>
@@ -2820,7 +2831,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="59" t="s">
         <v>97</v>
       </c>
       <c r="N10" s="21" t="s">
@@ -2856,15 +2867,15 @@
       <c r="G11" s="1">
         <v>950000000</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="58">
         <f>(G10+F10+E10)/3</f>
         <v>0.41051960633031248</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="58">
         <f>(G14+F14+E14)/3</f>
         <v>0.43828694165068605</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="58">
         <f>(G81+F81+E81)/3</f>
         <v>0.38312075768395881</v>
       </c>
@@ -2918,13 +2929,13 @@
       <c r="G13" s="1">
         <v>2466000000</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="59" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="21" t="s">
@@ -2964,7 +2975,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="59">
+      <c r="M14" s="58">
         <f>G29/G73</f>
         <v>0.34046762589928059</v>
       </c>
@@ -2972,7 +2983,7 @@
         <f>G29/G55</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="58">
         <f>(G29-G99)/G74</f>
         <v>0.11803217358772915</v>
       </c>
@@ -3027,7 +3038,7 @@
       <c r="G16" s="1">
         <v>5009000000</v>
       </c>
-      <c r="M16" s="60" t="s">
+      <c r="M16" s="59" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="21" t="s">
@@ -3036,7 +3047,7 @@
       <c r="O16" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="62" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3066,15 +3077,15 @@
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="60">
         <f>O101/G4</f>
         <v>9.524943445648292</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="60">
         <f>O101/G26</f>
         <v>40.221216691804926</v>
       </c>
-      <c r="P17" s="62">
+      <c r="P17" s="61">
         <f>O101/G107</f>
         <v>23.494860499265787</v>
       </c>
@@ -3102,7 +3113,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3123,6 +3134,9 @@
       </c>
       <c r="G19" s="1">
         <v>81000000</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3146,6 +3160,10 @@
       </c>
       <c r="G20" s="10">
         <v>2094000000</v>
+      </c>
+      <c r="M20" s="72">
+        <f>G41-G57-G62</f>
+        <v>7281000000</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,7 +4409,7 @@
       <c r="G73" s="10">
         <v>5560000000</v>
       </c>
-      <c r="M73" s="53"/>
+      <c r="M73" s="52"/>
     </row>
     <row r="74" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
@@ -4638,10 +4656,10 @@
       <c r="G83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N83" s="66" t="s">
+      <c r="N83" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="O83" s="67"/>
+      <c r="O83" s="66"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4665,10 +4683,10 @@
       <c r="G84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N84" s="68" t="s">
+      <c r="N84" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="O84" s="69"/>
+      <c r="O84" s="68"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4946,10 +4964,10 @@
       <c r="G93" s="1">
         <v>4071000000</v>
       </c>
-      <c r="N93" s="68" t="s">
+      <c r="N93" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="O93" s="69"/>
+      <c r="O93" s="68"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -5090,10 +5108,10 @@
       <c r="G98" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="N98" s="68" t="s">
+      <c r="N98" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="O98" s="69"/>
+      <c r="O98" s="68"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5266,10 +5284,10 @@
       <c r="G104" s="1">
         <v>9727000000</v>
       </c>
-      <c r="N104" s="68" t="s">
+      <c r="N104" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="O104" s="69"/>
+      <c r="O104" s="68"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -5332,10 +5350,10 @@
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="70" t="s">
+      <c r="N106" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="O106" s="71"/>
+      <c r="O106" s="70"/>
       <c r="P106" s="18"/>
       <c r="Q106" s="18"/>
     </row>
@@ -5361,23 +5379,23 @@
       <c r="G107" s="1">
         <v>3405000000</v>
       </c>
-      <c r="H107" s="52">
+      <c r="H107" s="51">
         <f>G107*(1+$O$107)</f>
         <v>3904665499.3593912</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="51">
         <f>H107*(1+$O$107)</f>
         <v>4477654232.5660858</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="51">
         <f>I107*(1+$O$107)</f>
         <v>5134725991.1780748</v>
       </c>
-      <c r="K107" s="52">
+      <c r="K107" s="51">
         <f>J107*(1+$O$107)</f>
         <v>5888219508.492506</v>
       </c>
-      <c r="L107" s="52">
+      <c r="L107" s="51">
         <f>K107*(1+$O$107)</f>
         <v>6752284160.7828484</v>
       </c>
@@ -5387,7 +5405,7 @@
       <c r="N107" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="O107" s="55">
+      <c r="O107" s="54">
         <f>(SUM(H5:L5)/5)</f>
         <v>0.14674464004681095</v>
       </c>
@@ -5397,63 +5415,63 @@
       <c r="I108" s="40"/>
       <c r="J108" s="40"/>
       <c r="K108" s="40"/>
-      <c r="L108" s="51">
+      <c r="L108" s="50">
         <f>L107*(1+O108)/(O109-O108)</f>
         <v>104720677848.7258</v>
       </c>
-      <c r="M108" s="54" t="s">
+      <c r="M108" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="N108" s="48" t="s">
+      <c r="N108" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="O108" s="49">
+      <c r="O108" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="51">
+      <c r="H109" s="50">
         <f t="shared" ref="H109:J109" si="10">H108+H107</f>
         <v>3904665499.3593912</v>
       </c>
-      <c r="I109" s="51">
+      <c r="I109" s="50">
         <f t="shared" si="10"/>
         <v>4477654232.5660858</v>
       </c>
-      <c r="J109" s="51">
+      <c r="J109" s="50">
         <f t="shared" si="10"/>
         <v>5134725991.1780748</v>
       </c>
-      <c r="K109" s="51">
+      <c r="K109" s="50">
         <f>K108+K107</f>
         <v>5888219508.492506</v>
       </c>
-      <c r="L109" s="51">
+      <c r="L109" s="50">
         <f>L108+L107</f>
         <v>111472962009.50865</v>
       </c>
-      <c r="M109" s="54" t="s">
+      <c r="M109" s="53" t="s">
         <v>140</v>
       </c>
       <c r="N109" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="O109" s="50">
+      <c r="O109" s="49">
         <f>O105</f>
         <v>9.1090970828132709E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H110" s="64" t="s">
+      <c r="H110" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="I110" s="65"/>
+      <c r="I110" s="64"/>
     </row>
     <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H111" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="I111" s="47">
+      <c r="I111" s="46">
         <f>NPV(O109,H109,I109,J109,K109,L109)</f>
         <v>87535963959.268433</v>
       </c>
@@ -5462,7 +5480,7 @@
       <c r="H112" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="I112" s="47">
+      <c r="I112" s="46">
         <f>G41</f>
         <v>9622000000</v>
       </c>
@@ -5471,7 +5489,7 @@
       <c r="H113" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="I113" s="47">
+      <c r="I113" s="46">
         <f>O99</f>
         <v>2341000000</v>
       </c>
@@ -5480,33 +5498,34 @@
       <c r="H114" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="I114" s="47">
+      <c r="I114" s="46">
         <f>I111+I112-I113</f>
         <v>94816963959.268433</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="44" t="s">
+      <c r="H115" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I115" s="45">
-        <v>408930000</v>
+      <c r="I115" s="73">
+        <f>G35*(1+(5*M17))</f>
+        <v>1053931440.2112232</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
       <c r="H116" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="I116" s="58">
+      <c r="I116" s="57">
         <f>I114/I115</f>
-        <v>231.86600141654668</v>
+        <v>89.965020817925051</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
       <c r="H117" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="I117" s="46">
+      <c r="I117" s="45">
         <v>126.33</v>
       </c>
     </row>
@@ -5514,18 +5533,18 @@
       <c r="H118" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="I118" s="56">
+      <c r="I118" s="55">
         <f>I116/I117-1</f>
-        <v>0.83539936211942289</v>
+        <v>-0.28785703460836654</v>
       </c>
     </row>
     <row r="119" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H119" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I119" s="57" t="str">
+      <c r="I119" s="56" t="str">
         <f>IF(I116&gt;I117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
